--- a/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
+++ b/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="-20" windowWidth="34060" windowHeight="21480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="28800" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LUNG" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -670,23 +670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -726,7 +726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -746,7 +746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -804,7 +804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,7 +842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -862,7 +862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -900,7 +900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -918,7 +918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -936,7 +936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -954,7 +954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -974,7 +974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -994,7 +994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1170,13 +1170,13 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="32">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
+++ b/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="28800" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LUNG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>Title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>NLST Patient and Physician Guide (39 KB)</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/Patient/page4#Section_924</t>
-  </si>
-  <si>
     <t>http://www.cancer.gov/cancertopics/druginfo/lungcancer</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/HealthProfessional/page3</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -191,6 +185,63 @@
   </si>
   <si>
     <t>http://www.cancer.gov/cancertopics/pdq/screening/lung/HealthProfessional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrenocortical Carcinoma Treatment </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adrenocortical/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adrenocortical/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Adrenocortical Carcinoma Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=7991121&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Adrenocortical Carcinoma</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/Patient/page5#Section_114</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/HealthProfessional/page4</t>
+  </si>
+  <si>
+    <t>Cancer Prevention Overview</t>
+  </si>
+  <si>
+    <t>Risk Factors</t>
+  </si>
+  <si>
+    <t>Cancer Screening</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/overview/patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/screening/overview/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/overview/patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/overview/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://preview.cancer.gov/about-cancer/causes-prevention/risk-factors/</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/Patient</t>
+  </si>
+  <si>
+    <t>Need to determine if we are going to deep link within this PDQ summary from the CTHP card: http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/Patient/page4#Section_924</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/HealthProfessional</t>
   </si>
 </sst>
 </file>
@@ -229,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -284,8 +341,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -296,14 +357,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -319,6 +383,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -334,6 +400,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,25 +736,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="2"/>
+    <col min="7" max="7" width="80.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,304 +763,307 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>4162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>4052</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>885901</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2898</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>9507</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>6835</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>4924</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>2203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>8726</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
         <v>4980</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,17 +1071,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,17 +1089,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,119 +1107,119 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>8036</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5">
-        <v>885881</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>42</v>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2840</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>3853</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2">
         <v>4031</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C23" s="2">
         <v>2190</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="2">
         <v>2301</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1163,20 +1235,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="71.5" customWidth="1"/>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="74.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,16 +1260,228 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>5309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>6158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>899999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>6145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>3374</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>1654</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>1541</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
+++ b/Daisy-xls/IA/Lung-Cancer-Cards.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27675" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LUNG" sheetId="1" r:id="rId1"/>
     <sheet name="ADRENOCORTICAL CARCINOMA" sheetId="2" r:id="rId2"/>
+    <sheet name="ANAL" sheetId="3" r:id="rId3"/>
+    <sheet name="GI CARCINOID TUMOR" sheetId="4" r:id="rId4"/>
+    <sheet name="LEUKEMIA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="139">
   <si>
     <t>Title</t>
   </si>
@@ -217,9 +220,6 @@
     <t>Risk Factors</t>
   </si>
   <si>
-    <t>Cancer Screening</t>
-  </si>
-  <si>
     <t>http://www.cancer.gov/cancertopics/pdq/screening/overview/patient</t>
   </si>
   <si>
@@ -242,6 +242,204 @@
   </si>
   <si>
     <t>http://www.cancer.gov/cancertopics/pdq/treatment/unusual-cancers-childhood/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Anal Cancer Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/anal/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/anal/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Anal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=8239021&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Anal Cancer</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/analcancer</t>
+  </si>
+  <si>
+    <t>Anal Cancer Prevention</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/anal/Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causes &amp; Prevention </t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/prevention/anal/HealthProfessional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient </t>
+  </si>
+  <si>
+    <t>Cancer Screening Overview</t>
+  </si>
+  <si>
+    <t>Survival Rates &amp; Prognosis</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/anus.html</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Carcinoid Tumors Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gastrointestinalcarcinoid/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/gastrointestinalcarcinoid/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Gastrointestinal Carcinoid Tumors</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=9847429&amp;vers=1</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultALL/Patient</t>
+  </si>
+  <si>
+    <t>Adult Acute Lymphoblastic Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultALL/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Childhood Acute Lymphoblastic Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childALL/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childALL/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Adult Acute Myeloid Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultAML/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/adultAML/healthprofessional</t>
+  </si>
+  <si>
+    <t>Childhood Acute Myeloid Leukemia/Other Myeloid Malignancies Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childAML/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childAML/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Chronic Lymphocytic Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/CLL/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/CLL/healthprofessional</t>
+  </si>
+  <si>
+    <t>Chronic Myelogenous Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/CML/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/CML/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Hairy Cell Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/hairy-cell-leukemia/Patient</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/hairy-cell-leukemia/HealthProfessional</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/pdq/treatment/childHCT/HealthProfessional</t>
+  </si>
+  <si>
+    <t>Childhood Hematopoietic Cell Transplantation</t>
+  </si>
+  <si>
+    <t>Drugs Approved for Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/cancertopics/druginfo/leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13759383&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Adult Acute Lymphoblastic Leukemia</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Acute Lymphoblastic Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13758857&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Adult Acute Myeloid Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6189730&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Childhood Acute Myeloid Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=6393156&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Hairy Cell Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13759413&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Chronic Myelogenous Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13759419&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Clinical Trials to Treat Chronic Lymphocytic Leukemia</t>
+  </si>
+  <si>
+    <t>http://www.cancer.gov/clinicaltrials/search/results?protocolsearchid=13759421&amp;vers=1</t>
+  </si>
+  <si>
+    <t>Bone Marrow</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET. URL WILL BE: www.cancer.gov/about-cancer/treatment/types/bone-marrow</t>
+  </si>
+  <si>
+    <t>Targeted Therapies</t>
+  </si>
+  <si>
+    <t>Biological Therapies</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET. URL WILL BE: www.cancer.gov/about-cancer/treatment/types/targeted-therapies</t>
+  </si>
+  <si>
+    <t>DOESN'T EXIST YET. URL WILL BE: www.cancer.gov/about-cancer/treatment/types/biological-therapies</t>
+  </si>
+  <si>
+    <t>http://seer.cancer.gov/statfacts/html/leuks.html</t>
   </si>
 </sst>
 </file>
@@ -309,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -344,6 +542,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -367,7 +610,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +628,51 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -738,20 +1026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="91.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -775,7 +1063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -795,7 +1083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -820,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7">
         <v>2898</v>
@@ -835,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -934,7 +1222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1008,7 +1296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1122,12 +1410,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8">
         <v>2840</v>
@@ -1142,7 +1430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +1450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1182,7 +1470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1202,7 +1490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1237,19 +1525,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="74.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
@@ -1352,7 +1640,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>6158</v>
@@ -1372,7 +1660,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>899999</v>
@@ -1389,10 +1677,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C8">
         <v>6145</v>
@@ -1404,7 +1692,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,7 +1737,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>1654</v>
@@ -1466,10 +1754,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>1541</v>
@@ -1481,6 +1769,1083 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="2" max="2" width="72.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>899999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>6145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>1541</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6835</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>6158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>899999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>1654</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>1541</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>6158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>899999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>6145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>1654</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>1541</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
         <v>40</v>
       </c>
     </row>
